--- a/filament_weights.xlsx
+++ b/filament_weights.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LichKing\Desktop\Spring 2025\Effective Programming\Filament-Logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D2290B1-0AAF-4117-A3BC-6B76760A788F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FAC76E1-8810-41FE-B27E-4EABBBA61BDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Timestamp</t>
   </si>
@@ -38,39 +38,6 @@
   </si>
   <si>
     <t>Weight (g)</t>
-  </si>
-  <si>
-    <t>2025-01-22 15:20:42</t>
-  </si>
-  <si>
-    <t>0300202000001</t>
-  </si>
-  <si>
-    <t>Overture</t>
-  </si>
-  <si>
-    <t>ABS</t>
-  </si>
-  <si>
-    <t>Black</t>
-  </si>
-  <si>
-    <t>456 g</t>
-  </si>
-  <si>
-    <t>2025-01-22 15:24:43</t>
-  </si>
-  <si>
-    <t>2304506000003</t>
-  </si>
-  <si>
-    <t>Bamboo Fiber PLA</t>
-  </si>
-  <si>
-    <t>Sapphire Blue</t>
-  </si>
-  <si>
-    <t>813 g</t>
   </si>
 </sst>
 </file>
@@ -410,9 +377,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -444,46 +413,6 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
